--- a/Subnets/8.xlsx
+++ b/Subnets/8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fa1849326a6bb03d/Archive/Documents/Python/Ngrok Minecraft Server Finder/Ngrok-Minecraft-Server-Finder/Subnets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_4F59BCAC430E0DD50D5B331A42ACB91D49CB0A88" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B49891D-FF7E-4946-B0CA-08D3C908A718}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_486507DC051929F58A3897437C82A95A75F7E0C4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A71A53ED-4737-4DD4-98F3-370B46F0C8A1}"/>
   <bookViews>
-    <workbookView xWindow="8415" yWindow="1500" windowWidth="18120" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10035" yWindow="615" windowWidth="18120" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,31 +20,232 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Subnet</t>
-  </si>
-  <si>
-    <t>Port</t>
-  </si>
-  <si>
-    <t>Version</t>
-  </si>
-  <si>
-    <t>Motd</t>
-  </si>
-  <si>
-    <t>Online</t>
-  </si>
-  <si>
-    <t>Max</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="72">
+  <si>
+    <t>1.16.5</t>
+  </si>
+  <si>
+    <t>A Minecraft Server</t>
+  </si>
+  <si>
+    <t>Paper 1.16.5</t>
+  </si>
+  <si>
+    <t>uwu</t>
+  </si>
+  <si>
+    <t>21w42a</t>
+  </si>
+  <si>
+    <t>NeshTheFish - sheeeesh</t>
+  </si>
+  <si>
+    <t>Spigot 1.8.8</t>
+  </si>
+  <si>
+    <t>§6§lSERVER §r§8§l§k|§r§f §r§fplay.server.ru§r§f §r§8§l§k|§r§f §r§b1.8-1.14.3
+§r§a➣ §r§fОткрытие §r§e§lСЕРВЕРА §r§fи скидки §r§c§l85% §e§lНА ЛЕТО§r§f!§r</t>
+  </si>
+  <si>
+    <t>1.12.2</t>
+  </si>
+  <si>
+    <t>§d§oSevTech: Ages Server§r - §4v3.2.1</t>
+  </si>
+  <si>
+    <t>1.14.4</t>
+  </si>
+  <si>
+    <t>KoTa - 3 дауна</t>
+  </si>
+  <si>
+    <t>1.17.1</t>
+  </si>
+  <si>
+    <t>Berwouts server B)</t>
+  </si>
+  <si>
+    <t>Bliks_ - Survie Moddée FC Minecraft</t>
+  </si>
+  <si>
+    <t>Spigot 1.17.1</t>
+  </si>
+  <si>
+    <t>tight booty ass</t>
+  </si>
+  <si>
+    <t>1.7.10</t>
+  </si>
+  <si>
+    <t>Paper 1.17.1</t>
+  </si>
+  <si>
+    <t>HomeCraft</t>
+  </si>
+  <si>
+    <t>Mein Kamph</t>
+  </si>
+  <si>
+    <t>Velocity 1.7.2-1.17.1</t>
+  </si>
+  <si>
+    <t>A LauffenServer</t>
+  </si>
+  <si>
+    <t>BungeeCord 1.8.x-1.16.x</t>
+  </si>
+  <si>
+    <t>Bucks UTC Mincraft Server!!!</t>
+  </si>
+  <si>
+    <t>Mohist 1.12.2</t>
+  </si>
+  <si>
+    <t>The David SMP</t>
+  </si>
+  <si>
+    <t>Paper 1.16.4</t>
+  </si>
+  <si>
+    <t>§n§6AssPiccone:§a Your own slice of paradise.</t>
+  </si>
+  <si>
+    <t>Noivern's World</t>
+  </si>
+  <si>
+    <t>Th3H4xx0r's Server</t>
+  </si>
+  <si>
+    <t>Spigot 1.16.1</t>
+  </si>
+  <si>
+    <t>Buildcraft@Pi4</t>
+  </si>
+  <si>
+    <t>Welcome to the world of Wolfy (Please use the John Smith Legacy texture pack for best results)</t>
+  </si>
+  <si>
+    <t>Among Us = Best Game</t>
+  </si>
+  <si>
+    <t>Paper 1.17</t>
+  </si>
+  <si>
+    <t>With blackjack and hookers!</t>
+  </si>
+  <si>
+    <t>Mechanical Mayhem Official Server</t>
+  </si>
+  <si>
+    <t>1.16.4</t>
+  </si>
+  <si>
+    <t>§2Autism Anonymous</t>
+  </si>
+  <si>
+    <t>God, work, chunks!</t>
+  </si>
+  <si>
+    <t>Hehehe what a funny smp</t>
+  </si>
+  <si>
+    <t>Mine dus Guri</t>
+  </si>
+  <si>
+    <t>21w39a</t>
+  </si>
+  <si>
+    <t>Space Minecraft Server</t>
+  </si>
+  <si>
+    <t>UwU *moans cutely*</t>
+  </si>
+  <si>
+    <t>michael gay</t>
+  </si>
+  <si>
+    <t>Epic Server</t>
+  </si>
+  <si>
+    <t>1.16.3</t>
+  </si>
+  <si>
+    <t>Un servidor en el que puede entrar todo el mundo menos los calvos.</t>
+  </si>
+  <si>
+    <t>§4§l§7Day 49§r | §eSummer§r</t>
+  </si>
+  <si>
+    <t>CraftBukkit 1.17.1</t>
+  </si>
+  <si>
+    <t>Os Bacaninhas</t>
+  </si>
+  <si>
+    <t>Let's say you've been a bad girl. Let's say, hypothetically, you've been a naughty girl even. Ok, and if you were a naughty girl, you would be my dirty little slut right? Then hypothetically speaking, you would be my little cumslut. Now, let's say you're also daddy's girl.</t>
+  </si>
+  <si>
+    <t>1.16.2</t>
+  </si>
+  <si>
+    <t>Grosses Bites</t>
+  </si>
+  <si>
+    <t>Purpur 1.17.1</t>
+  </si>
+  <si>
+    <t>Factions server</t>
+  </si>
+  <si>
+    <t>Dronik is a cutie</t>
+  </si>
+  <si>
+    <t>Paper 1.15.2</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>Svl22</t>
+  </si>
+  <si>
+    <t>Rlcraft Server</t>
+  </si>
+  <si>
+    <t>hey hi hello hola aloha konnichiwa. Welcome James, to Gravytown</t>
+  </si>
+  <si>
+    <t>Castleton 3</t>
+  </si>
+  <si>
+    <t>§b&lt;===§8|- §5§lMinecraft 1.17 §r§8-|§b===&gt;§r
+     §6§lCaves/Cliffs Part 1</t>
+  </si>
+  <si>
+    <t>§a §lSurvival Multiplayer §f- §6Local §f-  §n§3Free-Roam §1[Dicscord] https://discord.gg/DgcJ2teTj2</t>
+  </si>
+  <si>
+    <t>Spigot 1.16.2</t>
+  </si>
+  <si>
+    <t>Lisya &lt;3</t>
+  </si>
+  <si>
+    <t>Isles SMP</t>
+  </si>
+  <si>
+    <t>ChAgnetz - Новый мир</t>
+  </si>
+  <si>
+    <t>§e                   It's time to play...
+§l§k§e        !!§l§b SLAUGHTER THAT SHEEP §l§k§e!!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,21 +254,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -79,14 +295,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -399,38 +620,1719 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="28.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>8</v>
+      </c>
+      <c r="B1">
+        <v>10415</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>11873</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>13323</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>13670</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>16061</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>16169</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>16618</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>17986</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>18595</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>18638</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>19481</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>10628</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>17167</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>16593</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>14560</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>17557</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>69420</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>8</v>
+      </c>
+      <c r="B17" s="1">
+        <v>10011</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>8</v>
+      </c>
+      <c r="B18" s="1">
+        <v>10940</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>8</v>
+      </c>
+      <c r="B19" s="1">
+        <v>11494</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2</v>
+      </c>
+      <c r="F19" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>8</v>
+      </c>
+      <c r="B20" s="1">
+        <v>12853</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2</v>
+      </c>
+      <c r="F20" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>8</v>
+      </c>
+      <c r="B21" s="1">
+        <v>13033</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>8</v>
+      </c>
+      <c r="B22" s="1">
+        <v>14467</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>8</v>
+      </c>
+      <c r="B23" s="1">
+        <v>16076</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>8</v>
+      </c>
+      <c r="B24" s="1">
+        <v>16231</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>8</v>
+      </c>
+      <c r="B25" s="1">
+        <v>18780</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>8</v>
+      </c>
+      <c r="B26" s="1">
+        <v>18885</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2</v>
+      </c>
+      <c r="F26" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>8</v>
+      </c>
+      <c r="B27">
+        <v>10825</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>8</v>
+      </c>
+      <c r="B28">
+        <v>11216</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>8</v>
+      </c>
+      <c r="B29">
+        <v>11345</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>8</v>
+      </c>
+      <c r="B30">
+        <v>11479</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>8</v>
+      </c>
+      <c r="B31">
+        <v>12090</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>8</v>
+      </c>
+      <c r="B32">
+        <v>12189</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <v>12608</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>8</v>
+      </c>
+      <c r="B34">
+        <v>12919</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>8</v>
+      </c>
+      <c r="B35">
+        <v>13394</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>8</v>
+      </c>
+      <c r="B36">
+        <v>13522</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>8</v>
+      </c>
+      <c r="B37">
+        <v>13654</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>8</v>
+      </c>
+      <c r="B38">
+        <v>13701</v>
+      </c>
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>8</v>
+      </c>
+      <c r="B39">
+        <v>14240</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>8</v>
+      </c>
+      <c r="B40">
+        <v>16640</v>
+      </c>
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="F40">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>8</v>
+      </c>
+      <c r="B41">
+        <v>17035</v>
+      </c>
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>8</v>
+      </c>
+      <c r="B42">
+        <v>17609</v>
+      </c>
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>8</v>
+      </c>
+      <c r="B43">
+        <v>18004</v>
+      </c>
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" t="s">
+        <v>63</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>8</v>
+      </c>
+      <c r="B44">
+        <v>18079</v>
+      </c>
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" t="s">
+        <v>64</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>8</v>
+      </c>
+      <c r="B45">
+        <v>18158</v>
+      </c>
+      <c r="C45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" t="s">
+        <v>65</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>8</v>
+      </c>
+      <c r="B46">
+        <v>18168</v>
+      </c>
+      <c r="C46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" t="s">
+        <v>66</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>8</v>
+      </c>
+      <c r="B47">
+        <v>18827</v>
+      </c>
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>8</v>
+      </c>
+      <c r="B48">
+        <v>11699</v>
+      </c>
+      <c r="C48" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>8</v>
+      </c>
+      <c r="B49">
+        <v>11982</v>
+      </c>
+      <c r="C49" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>8</v>
+      </c>
+      <c r="B50">
+        <v>16464</v>
+      </c>
+      <c r="C50" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" t="s">
+        <v>47</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>8</v>
+      </c>
+      <c r="B51">
+        <v>16025</v>
+      </c>
+      <c r="C51" t="s">
+        <v>43</v>
+      </c>
+      <c r="D51" t="s">
+        <v>44</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>8</v>
+      </c>
+      <c r="B52">
+        <v>10077</v>
+      </c>
+      <c r="C52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" t="s">
         <v>5</v>
       </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>8</v>
+      </c>
+      <c r="B53">
+        <v>12281</v>
+      </c>
+      <c r="C53" t="s">
+        <v>23</v>
+      </c>
+      <c r="D53" t="s">
+        <v>24</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>8</v>
+      </c>
+      <c r="B54">
+        <v>17028</v>
+      </c>
+      <c r="C54" t="s">
+        <v>51</v>
+      </c>
+      <c r="D54" t="s">
+        <v>52</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>8</v>
+      </c>
+      <c r="B55">
+        <v>12401</v>
+      </c>
+      <c r="C55" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" t="s">
+        <v>26</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>8</v>
+      </c>
+      <c r="B56">
+        <v>17802</v>
+      </c>
+      <c r="C56" t="s">
+        <v>59</v>
+      </c>
+      <c r="D56" t="s">
+        <v>60</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>8</v>
+      </c>
+      <c r="B57">
+        <v>12987</v>
+      </c>
+      <c r="C57" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57" t="s">
+        <v>28</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>8</v>
+      </c>
+      <c r="B58" s="1">
+        <v>10042</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0</v>
+      </c>
+      <c r="F58" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>8</v>
+      </c>
+      <c r="B59" s="1">
+        <v>12899</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0</v>
+      </c>
+      <c r="F59" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>8</v>
+      </c>
+      <c r="B60" s="2">
+        <v>14220</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E60" s="2">
+        <v>0</v>
+      </c>
+      <c r="F60" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>8</v>
+      </c>
+      <c r="B61">
+        <v>14008</v>
+      </c>
+      <c r="C61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>8</v>
+      </c>
+      <c r="B62">
+        <v>11791</v>
+      </c>
+      <c r="C62" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>4</v>
+      </c>
+      <c r="F62">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>8</v>
+      </c>
+      <c r="B63">
+        <v>12052</v>
+      </c>
+      <c r="C63" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>8</v>
+      </c>
+      <c r="B64">
+        <v>12153</v>
+      </c>
+      <c r="C64" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" t="s">
+        <v>20</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>8</v>
+      </c>
+      <c r="B65">
+        <v>15069</v>
+      </c>
+      <c r="C65" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" t="s">
+        <v>40</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>8</v>
+      </c>
+      <c r="B66">
+        <v>15525</v>
+      </c>
+      <c r="C66" t="s">
+        <v>18</v>
+      </c>
+      <c r="D66" t="s">
+        <v>41</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>8</v>
+      </c>
+      <c r="B67">
+        <v>15755</v>
+      </c>
+      <c r="C67" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" t="s">
+        <v>42</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>8</v>
+      </c>
+      <c r="B68">
+        <v>17458</v>
+      </c>
+      <c r="C68" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>8</v>
+      </c>
+      <c r="B69">
+        <v>17824</v>
+      </c>
+      <c r="C69" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69" t="s">
+        <v>61</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>8</v>
+      </c>
+      <c r="B70">
+        <v>19312</v>
+      </c>
+      <c r="C70" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>8</v>
+      </c>
+      <c r="B71">
+        <v>19436</v>
+      </c>
+      <c r="C71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71">
+        <v>2</v>
+      </c>
+      <c r="F71">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>8</v>
+      </c>
+      <c r="B72">
+        <v>19773</v>
+      </c>
+      <c r="C72" t="s">
+        <v>18</v>
+      </c>
+      <c r="D72" t="s">
+        <v>71</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>8</v>
+      </c>
+      <c r="B73">
+        <v>17488</v>
+      </c>
+      <c r="C73" t="s">
+        <v>56</v>
+      </c>
+      <c r="D73" t="s">
+        <v>57</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>8</v>
+      </c>
+      <c r="B74">
+        <v>13368</v>
+      </c>
+      <c r="C74" t="s">
+        <v>31</v>
+      </c>
+      <c r="D74" t="s">
+        <v>32</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>8</v>
+      </c>
+      <c r="B75">
+        <v>19082</v>
+      </c>
+      <c r="C75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D75" t="s">
+        <v>68</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>8</v>
+      </c>
+      <c r="B76">
+        <v>11658</v>
+      </c>
+      <c r="C76" t="s">
+        <v>15</v>
+      </c>
+      <c r="D76" t="s">
+        <v>16</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>8</v>
+      </c>
+      <c r="B77">
+        <v>12328</v>
+      </c>
+      <c r="C77" t="s">
+        <v>15</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>8</v>
+      </c>
+      <c r="B78">
+        <v>12651</v>
+      </c>
+      <c r="C78" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+      <c r="F78">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>8</v>
+      </c>
+      <c r="B79">
+        <v>13032</v>
+      </c>
+      <c r="C79" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79" t="s">
+        <v>29</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>8</v>
+      </c>
+      <c r="B80">
+        <v>14569</v>
+      </c>
+      <c r="C80" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80" t="s">
+        <v>39</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>8</v>
+      </c>
+      <c r="B81">
+        <v>16181</v>
+      </c>
+      <c r="C81" t="s">
+        <v>15</v>
+      </c>
+      <c r="D81" t="s">
+        <v>46</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>8</v>
+      </c>
+      <c r="B82">
+        <v>17997</v>
+      </c>
+      <c r="C82" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>8</v>
+      </c>
+      <c r="B83">
+        <v>19734</v>
+      </c>
+      <c r="C83" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>8</v>
+      </c>
+      <c r="B84">
+        <v>10256</v>
+      </c>
+      <c r="C84" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84" t="s">
+        <v>7</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>8</v>
+      </c>
+      <c r="B85">
+        <v>12163</v>
+      </c>
+      <c r="C85" t="s">
+        <v>21</v>
+      </c>
+      <c r="D85" t="s">
+        <v>22</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>500</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:F86">
+    <sortCondition ref="C1:C86"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
 </worksheet>
